--- a/output/code/matplotlib_plots/3D-printed_tensile_test_data.xlsx
+++ b/output/code/matplotlib_plots/3D-printed_tensile_test_data.xlsx
@@ -156,15 +156,17 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
